--- a/inputs/team_registration.xlsx
+++ b/inputs/team_registration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9e5357b4e382aaad/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A57EDC4-0430-4BBB-A1E0-C76116A4E2E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{6037F664-A983-4C35-816C-CE43D2F6AC9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{753ED963-C871-4F36-A8CC-FB973202BF5C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{227EC3F9-AD4B-4608-B347-19149059DB32}"/>
+    <workbookView xWindow="9696" yWindow="0" windowWidth="13440" windowHeight="12336" xr2:uid="{227EC3F9-AD4B-4608-B347-19149059DB32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>TeamID</t>
   </si>
@@ -69,15 +69,6 @@
     <t>GitHub Usernames</t>
   </si>
   <si>
-    <t>Karthikraja2345, Lokesh-1511</t>
-  </si>
-  <si>
-    <t>KishorM28, inba-m06</t>
-  </si>
-  <si>
-    <t>UKarthik2, YUVAN0907</t>
-  </si>
-  <si>
     <t>L01</t>
   </si>
   <si>
@@ -94,6 +85,45 @@
   </si>
   <si>
     <t>ADVANCED NLP</t>
+  </si>
+  <si>
+    <t>inba-m06, KeerthanaGb14, Lokesh-1511</t>
+  </si>
+  <si>
+    <t>Gokul-K-19, Sriram-2705, arumugaperumal06</t>
+  </si>
+  <si>
+    <t>Jayasuriya-ENGINEER, Thulasi-Ravichandran, vishy-18</t>
+  </si>
+  <si>
+    <t>Abishree730, SubhasiniPaulpandi23, Praveen95-cs</t>
+  </si>
+  <si>
+    <t>T004</t>
+  </si>
+  <si>
+    <t>T005</t>
+  </si>
+  <si>
+    <t>FGH</t>
+  </si>
+  <si>
+    <t>HJI</t>
+  </si>
+  <si>
+    <t>rakeshmm05, VethavalliGM</t>
+  </si>
+  <si>
+    <t>L04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLOUD </t>
+  </si>
+  <si>
+    <t>L05</t>
+  </si>
+  <si>
+    <t>NETWORKS</t>
   </si>
 </sst>
 </file>
@@ -160,9 +190,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -200,7 +230,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -306,7 +336,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,7 +478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -456,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44E88526-019B-4827-B58E-83183F19C9F1}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -512,13 +542,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -529,13 +559,47 @@
         <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
